--- a/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация Серверный шкаф.xlsx
+++ b/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация Серверный шкаф.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C91A8D3-7A0C-4F9B-A2EB-237A6CEA1DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDC46E-F915-4BAE-91D3-37A5DB5ADD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>Обозн</t>
   </si>
@@ -214,54 +214,15 @@
     <t>MLS10-230-K06</t>
   </si>
   <si>
-    <t>Цена б.НДС</t>
-  </si>
-  <si>
     <t>Сумма б.НДС</t>
   </si>
   <si>
-    <t>21006.79</t>
-  </si>
-  <si>
-    <t>573.23</t>
-  </si>
-  <si>
-    <t>736.30</t>
-  </si>
-  <si>
-    <t>15933.33</t>
-  </si>
-  <si>
-    <t>5258.86</t>
-  </si>
-  <si>
-    <t>3052.71</t>
-  </si>
-  <si>
-    <t>28000.83</t>
-  </si>
-  <si>
-    <t>106619.48</t>
-  </si>
-  <si>
-    <t>115314.17</t>
-  </si>
-  <si>
     <t>Автоматический выключатель 2П 10А 6кА</t>
   </si>
   <si>
     <t>MVA20-2-010-C</t>
   </si>
   <si>
-    <t>458.33</t>
-  </si>
-  <si>
-    <t>1176.69</t>
-  </si>
-  <si>
-    <t>213.21</t>
-  </si>
-  <si>
     <t>Карта мониторинга IC-RS232/Dry contacts</t>
   </si>
   <si>
@@ -271,28 +232,25 @@
     <t>Штиль</t>
   </si>
   <si>
-    <t>1091.67</t>
-  </si>
-  <si>
-    <t>56066.67</t>
-  </si>
-  <si>
-    <t>34533.33</t>
-  </si>
-  <si>
-    <t>430.07</t>
-  </si>
-  <si>
-    <t>37.53</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>228.0</t>
-  </si>
-  <si>
-    <t>114.17</t>
+    <t>Цена б,НДС</t>
+  </si>
+  <si>
+    <t>АРМ</t>
+  </si>
+  <si>
+    <t>IPC-SYS1-3-A9**</t>
+  </si>
+  <si>
+    <t>Advantix</t>
+  </si>
+  <si>
+    <t>АРМ Оператора с характеристиками не хуже CPU Core i5, RAM 8 ГБ, HDD 1ТБ, DVD-ROM, 2×LAN 10/100/1000, звуковая карта интегрированная, ОС AstraLinux SE Смоленск</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Сервер с характеристиками не хуже raid массив HDD, возможность горячей замены HDD, CPU Intel Xeon E3-1230v6 3.5 ГГц, RAM 16 Гб, 3×LAN 10/100/1000,  ОС AstraLinux SE Смоленск</t>
   </si>
 </sst>
 </file>
@@ -403,7 +361,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -424,9 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -443,20 +398,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -759,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:J698"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -771,7 +733,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="20" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="6" customWidth="1"/>
@@ -797,11 +759,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -823,10 +785,10 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="15">
         <v>7</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>8</v>
       </c>
     </row>
@@ -834,17 +796,23 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
+        <f>SUM(H4:H28)</f>
+        <v>692876.82000000007</v>
+      </c>
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H15" si="0">G3*F3</f>
+        <v>1385753.6400000001</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -863,10 +831,13 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>240818.32</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>240818.32</v>
+      </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -885,10 +856,13 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="13"/>
+      <c r="G5" s="15">
+        <v>21006.79</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>21006.79</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -907,10 +881,13 @@
       <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="G6" s="15">
+        <v>573.23</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>2292.92</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
@@ -929,10 +906,13 @@
       <c r="F7" s="2">
         <v>8</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="13"/>
+      <c r="G7" s="15">
+        <v>736.3</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>5890.4</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -951,10 +931,13 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="13"/>
+      <c r="G8" s="15">
+        <v>15933.33</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>31866.66</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -973,10 +956,13 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="13"/>
+      <c r="G9" s="15">
+        <v>5258.86</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>5258.86</v>
+      </c>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -995,10 +981,13 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="13"/>
+      <c r="G10" s="15">
+        <v>3052.71</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>3052.71</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
@@ -1017,10 +1006,13 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="13"/>
+      <c r="G11" s="15">
+        <v>28000.83</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>28000.83</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
@@ -1040,7 +1032,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -1059,10 +1054,13 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="G13" s="15">
+        <v>106619.48</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>106619.48</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
@@ -1082,7 +1080,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -1101,10 +1102,13 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="13"/>
+      <c r="G15" s="15">
+        <v>115314.17</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>115314.17</v>
+      </c>
     </row>
     <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1123,21 +1127,21 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="13" t="e">
-        <f t="shared" ref="H16" si="0">G16*F16</f>
-        <v>#VALUE!</v>
+      <c r="G16" s="15">
+        <v>1176.69</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" ref="H16" si="1">G16*F16</f>
+        <v>1176.69</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1145,15 +1149,15 @@
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="13" t="e">
-        <f t="shared" ref="H17:H28" si="1">G17*F17</f>
-        <v>#VALUE!</v>
+      <c r="G17" s="15">
+        <v>458.33</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" ref="H17:H28" si="2">G17*F17</f>
+        <v>458.33</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1173,24 +1177,24 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G18" s="15">
+        <v>213.21</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="2"/>
+        <v>639.63</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -1198,12 +1202,12 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G19" s="15">
+        <v>1091.67</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="2"/>
+        <v>1091.67</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1223,12 +1227,12 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G20" s="15">
+        <v>56066.67</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="2"/>
+        <v>56066.67</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1248,23 +1252,23 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G21" s="15">
+        <v>34533.33</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="2"/>
+        <v>69066.66</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1273,12 +1277,12 @@
       <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G22" s="15">
+        <v>430.07</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="2"/>
+        <v>860.14</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1298,37 +1302,37 @@
       <c r="F23" s="2">
         <v>7</v>
       </c>
-      <c r="G23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G23" s="15">
+        <v>37.53</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="2"/>
+        <v>262.71000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F24" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G24" s="15">
+        <v>33.33</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="2"/>
+        <v>333.29999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
@@ -1344,16 +1348,16 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="15">
         <v>909.33</v>
       </c>
-      <c r="H25" s="13">
-        <f t="shared" si="1"/>
+      <c r="H25" s="12">
+        <f t="shared" si="2"/>
         <v>1818.66</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>55</v>
       </c>
@@ -1369,16 +1373,16 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+      <c r="G26" s="15">
+        <v>228</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="2"/>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
         <v>57</v>
       </c>
@@ -1394,11 +1398,11 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="15">
         <v>296.88</v>
       </c>
-      <c r="H27" s="13">
-        <f t="shared" si="1"/>
+      <c r="H27" s="12">
+        <f t="shared" si="2"/>
         <v>296.88</v>
       </c>
     </row>
@@ -1419,1304 +1423,1400 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="13" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="36" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="39" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="40" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="45" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="46" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="48" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="49" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="50" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="51" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="52" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="53" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="54" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="55" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="56" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="57" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="58" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="59" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="60" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="61" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="62" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="63" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="64" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+      <c r="G28" s="15">
+        <v>114.17</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="2"/>
+        <v>228.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="7:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="7:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="7:7" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G64" s="18"/>
+    </row>
     <row r="65" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G65"/>
+      <c r="G65" s="19"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G66"/>
+      <c r="G66" s="19"/>
       <c r="J66"/>
     </row>
     <row r="67" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G67"/>
+      <c r="G67" s="19"/>
       <c r="J67"/>
     </row>
     <row r="68" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G68"/>
+      <c r="G68" s="19"/>
       <c r="J68"/>
     </row>
     <row r="69" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G69"/>
+      <c r="G69" s="19"/>
       <c r="J69"/>
     </row>
     <row r="70" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G70"/>
+      <c r="G70" s="19"/>
       <c r="J70"/>
     </row>
     <row r="71" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G71"/>
+      <c r="G71" s="19"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G72"/>
+      <c r="G72" s="19"/>
       <c r="J72"/>
     </row>
     <row r="73" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G73"/>
+      <c r="G73" s="19"/>
       <c r="J73"/>
     </row>
     <row r="74" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G74"/>
+      <c r="G74" s="19"/>
       <c r="J74"/>
     </row>
     <row r="75" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G75"/>
+      <c r="G75" s="19"/>
       <c r="J75"/>
     </row>
     <row r="76" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G76"/>
+      <c r="G76" s="19"/>
       <c r="J76"/>
     </row>
     <row r="77" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G77"/>
+      <c r="G77" s="19"/>
       <c r="J77"/>
     </row>
     <row r="78" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G78"/>
+      <c r="G78" s="19"/>
       <c r="J78"/>
     </row>
     <row r="79" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G79"/>
+      <c r="G79" s="19"/>
       <c r="J79"/>
     </row>
     <row r="80" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G80"/>
+      <c r="G80" s="19"/>
       <c r="J80"/>
     </row>
     <row r="81" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G81"/>
+      <c r="G81" s="19"/>
       <c r="J81"/>
     </row>
     <row r="82" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G82"/>
+      <c r="G82" s="19"/>
       <c r="J82"/>
     </row>
     <row r="83" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G83"/>
+      <c r="G83" s="19"/>
       <c r="J83"/>
     </row>
     <row r="84" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G84"/>
+      <c r="G84" s="19"/>
       <c r="J84"/>
     </row>
     <row r="85" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G85"/>
+      <c r="G85" s="19"/>
       <c r="J85"/>
     </row>
     <row r="86" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G86"/>
+      <c r="G86" s="19"/>
       <c r="J86"/>
     </row>
     <row r="87" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G87"/>
+      <c r="G87" s="19"/>
       <c r="J87"/>
     </row>
     <row r="88" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G88"/>
+      <c r="G88" s="19"/>
       <c r="J88"/>
     </row>
     <row r="89" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G89"/>
+      <c r="G89" s="19"/>
       <c r="J89"/>
     </row>
     <row r="90" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G90"/>
+      <c r="G90" s="19"/>
       <c r="J90"/>
     </row>
     <row r="91" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G91"/>
+      <c r="G91" s="19"/>
       <c r="J91"/>
     </row>
     <row r="92" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G92"/>
+      <c r="G92" s="19"/>
       <c r="J92"/>
     </row>
     <row r="93" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93"/>
+      <c r="G93" s="19"/>
       <c r="J93"/>
     </row>
     <row r="94" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94"/>
+      <c r="G94" s="19"/>
       <c r="J94"/>
     </row>
     <row r="95" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G95"/>
+      <c r="G95" s="19"/>
       <c r="J95"/>
     </row>
     <row r="96" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G96"/>
+      <c r="G96" s="19"/>
       <c r="J96"/>
     </row>
     <row r="97" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G97"/>
+      <c r="G97" s="19"/>
       <c r="J97"/>
     </row>
     <row r="98" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G98"/>
+      <c r="G98" s="19"/>
       <c r="J98"/>
     </row>
     <row r="99" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G99"/>
+      <c r="G99" s="19"/>
       <c r="J99"/>
     </row>
     <row r="100" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G100"/>
+      <c r="G100" s="19"/>
       <c r="J100"/>
     </row>
     <row r="101" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G101"/>
+      <c r="G101" s="19"/>
       <c r="J101"/>
     </row>
     <row r="102" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G102"/>
+      <c r="G102" s="19"/>
       <c r="J102"/>
     </row>
     <row r="103" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G103"/>
+      <c r="G103" s="19"/>
       <c r="J103"/>
     </row>
     <row r="104" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G104"/>
+      <c r="G104" s="19"/>
       <c r="J104"/>
     </row>
     <row r="105" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G105"/>
+      <c r="G105" s="19"/>
       <c r="J105"/>
     </row>
     <row r="106" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G106"/>
+      <c r="G106" s="19"/>
       <c r="J106"/>
     </row>
     <row r="107" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G107"/>
+      <c r="G107" s="19"/>
       <c r="J107"/>
     </row>
     <row r="108" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G108"/>
+      <c r="G108" s="19"/>
       <c r="J108"/>
     </row>
     <row r="109" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G109"/>
+      <c r="G109" s="19"/>
       <c r="J109"/>
     </row>
     <row r="110" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G110"/>
+      <c r="G110" s="19"/>
       <c r="J110"/>
     </row>
     <row r="111" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G111"/>
+      <c r="G111" s="19"/>
       <c r="J111"/>
     </row>
     <row r="112" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G112"/>
+      <c r="G112" s="19"/>
       <c r="J112"/>
     </row>
     <row r="113" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G113"/>
+      <c r="G113" s="19"/>
       <c r="J113"/>
     </row>
     <row r="114" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G114"/>
+      <c r="G114" s="19"/>
       <c r="J114"/>
     </row>
     <row r="115" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G115"/>
+      <c r="G115" s="19"/>
       <c r="J115"/>
     </row>
     <row r="116" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G116"/>
+      <c r="G116" s="19"/>
       <c r="J116"/>
     </row>
     <row r="117" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G117"/>
+      <c r="G117" s="19"/>
       <c r="J117"/>
     </row>
     <row r="118" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G118"/>
+      <c r="G118" s="19"/>
       <c r="J118"/>
     </row>
     <row r="119" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G119"/>
+      <c r="G119" s="19"/>
       <c r="J119"/>
     </row>
     <row r="120" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G120"/>
+      <c r="G120" s="19"/>
       <c r="J120"/>
     </row>
     <row r="121" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G121"/>
+      <c r="G121" s="19"/>
       <c r="J121"/>
     </row>
     <row r="122" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G122"/>
+      <c r="G122" s="19"/>
       <c r="J122"/>
     </row>
     <row r="123" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G123"/>
+      <c r="G123" s="19"/>
       <c r="J123"/>
     </row>
     <row r="124" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G124"/>
+      <c r="G124" s="19"/>
       <c r="J124"/>
     </row>
     <row r="125" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G125"/>
+      <c r="G125" s="19"/>
       <c r="J125"/>
     </row>
     <row r="126" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G126"/>
+      <c r="G126" s="19"/>
       <c r="J126"/>
     </row>
     <row r="127" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G127"/>
+      <c r="G127" s="19"/>
       <c r="J127"/>
     </row>
     <row r="128" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G128"/>
+      <c r="G128" s="19"/>
       <c r="J128"/>
     </row>
     <row r="129" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G129"/>
+      <c r="G129" s="19"/>
       <c r="J129"/>
     </row>
     <row r="130" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G130"/>
+      <c r="G130" s="19"/>
       <c r="J130"/>
     </row>
     <row r="131" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G131"/>
+      <c r="G131" s="19"/>
       <c r="J131"/>
     </row>
     <row r="132" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G132"/>
+      <c r="G132" s="19"/>
       <c r="J132"/>
     </row>
     <row r="133" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G133"/>
+      <c r="G133" s="19"/>
       <c r="J133"/>
     </row>
     <row r="134" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G134"/>
+      <c r="G134" s="19"/>
       <c r="J134"/>
     </row>
     <row r="135" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G135"/>
+      <c r="G135" s="19"/>
       <c r="J135"/>
     </row>
     <row r="136" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G136"/>
+      <c r="G136" s="19"/>
       <c r="J136"/>
     </row>
     <row r="137" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G137"/>
+      <c r="G137" s="19"/>
       <c r="J137"/>
     </row>
     <row r="138" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G138"/>
+      <c r="G138" s="19"/>
       <c r="J138"/>
     </row>
     <row r="139" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G139"/>
+      <c r="G139" s="19"/>
       <c r="J139"/>
     </row>
     <row r="140" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G140"/>
+      <c r="G140" s="19"/>
       <c r="J140"/>
     </row>
     <row r="141" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G141"/>
+      <c r="G141" s="19"/>
       <c r="J141"/>
     </row>
     <row r="142" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G142"/>
+      <c r="G142" s="19"/>
       <c r="J142"/>
     </row>
     <row r="143" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G143"/>
+      <c r="G143" s="19"/>
       <c r="J143"/>
     </row>
     <row r="144" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G144"/>
+      <c r="G144" s="19"/>
       <c r="J144"/>
     </row>
     <row r="145" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G145"/>
+      <c r="G145" s="19"/>
       <c r="J145"/>
     </row>
     <row r="146" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G146"/>
+      <c r="G146" s="19"/>
       <c r="J146"/>
     </row>
     <row r="147" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G147"/>
+      <c r="G147" s="19"/>
       <c r="J147"/>
     </row>
     <row r="148" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G148"/>
+      <c r="G148" s="19"/>
       <c r="J148"/>
     </row>
     <row r="149" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G149"/>
+      <c r="G149" s="19"/>
       <c r="J149"/>
     </row>
     <row r="150" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G150"/>
+      <c r="G150" s="19"/>
       <c r="J150"/>
     </row>
     <row r="151" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G151"/>
+      <c r="G151" s="19"/>
       <c r="J151"/>
     </row>
     <row r="152" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G152"/>
+      <c r="G152" s="19"/>
       <c r="J152"/>
     </row>
     <row r="153" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G153"/>
+      <c r="G153" s="19"/>
       <c r="J153"/>
     </row>
     <row r="154" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G154"/>
+      <c r="G154" s="19"/>
       <c r="J154"/>
     </row>
     <row r="155" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G155"/>
+      <c r="G155" s="19"/>
       <c r="J155"/>
     </row>
     <row r="156" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G156"/>
+      <c r="G156" s="19"/>
       <c r="J156"/>
     </row>
     <row r="157" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G157"/>
+      <c r="G157" s="19"/>
       <c r="J157"/>
     </row>
     <row r="158" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G158"/>
+      <c r="G158" s="19"/>
       <c r="J158"/>
     </row>
     <row r="159" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G159"/>
+      <c r="G159" s="19"/>
       <c r="J159"/>
     </row>
     <row r="160" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G160"/>
+      <c r="G160" s="19"/>
       <c r="J160"/>
     </row>
     <row r="161" spans="7:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G161"/>
+      <c r="G161" s="19"/>
       <c r="J161"/>
     </row>
     <row r="162" spans="7:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G162"/>
+      <c r="G162" s="19"/>
       <c r="J162"/>
     </row>
     <row r="163" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G163"/>
+      <c r="G163" s="19"/>
       <c r="J163"/>
     </row>
     <row r="164" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G164"/>
+      <c r="G164" s="19"/>
       <c r="J164"/>
     </row>
     <row r="165" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G165"/>
+      <c r="G165" s="19"/>
       <c r="J165"/>
     </row>
     <row r="166" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G166"/>
+      <c r="G166" s="19"/>
       <c r="J166"/>
     </row>
     <row r="167" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G167"/>
+      <c r="G167" s="19"/>
       <c r="J167"/>
     </row>
     <row r="168" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G168"/>
+      <c r="G168" s="19"/>
       <c r="J168"/>
     </row>
     <row r="169" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G169"/>
+      <c r="G169" s="19"/>
       <c r="J169"/>
     </row>
     <row r="170" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G170"/>
+      <c r="G170" s="19"/>
       <c r="J170"/>
     </row>
     <row r="171" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G171"/>
+      <c r="G171" s="19"/>
       <c r="J171"/>
     </row>
     <row r="172" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G172"/>
+      <c r="G172" s="19"/>
       <c r="J172"/>
     </row>
     <row r="173" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G173"/>
+      <c r="G173" s="19"/>
       <c r="J173"/>
     </row>
     <row r="174" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G174"/>
+      <c r="G174" s="19"/>
       <c r="J174"/>
     </row>
     <row r="175" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G175"/>
+      <c r="G175" s="19"/>
       <c r="J175"/>
     </row>
     <row r="176" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G176"/>
+      <c r="G176" s="19"/>
       <c r="J176"/>
     </row>
     <row r="177" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G177"/>
+      <c r="G177" s="19"/>
       <c r="J177"/>
     </row>
     <row r="178" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G178"/>
+      <c r="G178" s="19"/>
       <c r="J178"/>
     </row>
     <row r="179" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G179"/>
+      <c r="G179" s="19"/>
       <c r="J179"/>
     </row>
     <row r="180" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G180"/>
+      <c r="G180" s="19"/>
       <c r="J180"/>
     </row>
     <row r="181" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G181"/>
+      <c r="G181" s="19"/>
       <c r="J181"/>
     </row>
     <row r="182" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G182"/>
+      <c r="G182" s="19"/>
       <c r="J182"/>
     </row>
     <row r="183" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G183"/>
+      <c r="G183" s="19"/>
       <c r="J183"/>
     </row>
     <row r="184" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G184"/>
+      <c r="G184" s="19"/>
       <c r="J184"/>
     </row>
     <row r="185" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G185"/>
+      <c r="G185" s="19"/>
       <c r="J185"/>
     </row>
     <row r="186" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G186"/>
+      <c r="G186" s="19"/>
       <c r="J186"/>
     </row>
     <row r="187" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G187"/>
+      <c r="G187" s="19"/>
       <c r="J187"/>
     </row>
     <row r="188" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G188"/>
+      <c r="G188" s="19"/>
       <c r="J188"/>
     </row>
     <row r="189" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G189"/>
+      <c r="G189" s="19"/>
       <c r="J189"/>
     </row>
     <row r="190" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G190"/>
+      <c r="G190" s="19"/>
       <c r="J190"/>
     </row>
     <row r="191" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G191"/>
+      <c r="G191" s="19"/>
       <c r="J191"/>
     </row>
     <row r="192" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G192"/>
+      <c r="G192" s="19"/>
       <c r="J192"/>
     </row>
     <row r="193" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G193"/>
+      <c r="G193" s="19"/>
       <c r="J193"/>
     </row>
     <row r="194" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G194"/>
+      <c r="G194" s="19"/>
       <c r="J194"/>
     </row>
     <row r="195" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G195"/>
+      <c r="G195" s="19"/>
       <c r="J195"/>
     </row>
     <row r="196" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G196"/>
+      <c r="G196" s="19"/>
       <c r="J196"/>
     </row>
     <row r="197" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G197"/>
+      <c r="G197" s="19"/>
       <c r="J197"/>
     </row>
     <row r="198" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G198"/>
+      <c r="G198" s="19"/>
       <c r="J198"/>
     </row>
     <row r="199" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G199"/>
+      <c r="G199" s="19"/>
       <c r="J199"/>
     </row>
     <row r="200" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G200"/>
+      <c r="G200" s="19"/>
       <c r="J200"/>
     </row>
     <row r="201" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G201"/>
+      <c r="G201" s="19"/>
       <c r="J201"/>
     </row>
     <row r="202" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G202"/>
+      <c r="G202" s="19"/>
       <c r="J202"/>
     </row>
     <row r="203" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G203"/>
+      <c r="G203" s="19"/>
       <c r="J203"/>
     </row>
     <row r="204" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G204"/>
+      <c r="G204" s="19"/>
       <c r="J204"/>
     </row>
     <row r="205" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G205"/>
+      <c r="G205" s="19"/>
       <c r="J205"/>
     </row>
     <row r="206" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G206"/>
+      <c r="G206" s="19"/>
       <c r="J206"/>
     </row>
     <row r="207" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G207"/>
+      <c r="G207" s="19"/>
       <c r="J207"/>
     </row>
     <row r="208" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G208"/>
+      <c r="G208" s="19"/>
       <c r="J208"/>
     </row>
     <row r="209" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G209"/>
+      <c r="G209" s="19"/>
       <c r="J209"/>
     </row>
     <row r="210" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G210"/>
+      <c r="G210" s="19"/>
       <c r="J210"/>
     </row>
     <row r="211" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G211"/>
+      <c r="G211" s="19"/>
       <c r="J211"/>
     </row>
     <row r="212" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G212"/>
+      <c r="G212" s="19"/>
       <c r="J212"/>
     </row>
     <row r="213" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G213"/>
+      <c r="G213" s="19"/>
       <c r="J213"/>
     </row>
     <row r="214" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G214"/>
+      <c r="G214" s="19"/>
       <c r="J214"/>
     </row>
     <row r="215" spans="7:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G215"/>
+      <c r="G215" s="19"/>
       <c r="J215"/>
     </row>
     <row r="216" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G216"/>
+      <c r="G216" s="19"/>
       <c r="J216"/>
     </row>
     <row r="217" spans="7:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G217"/>
+      <c r="G217" s="19"/>
       <c r="J217"/>
     </row>
     <row r="218" spans="7:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G218"/>
+      <c r="G218" s="19"/>
       <c r="J218"/>
     </row>
     <row r="219" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G219"/>
+      <c r="G219" s="19"/>
       <c r="J219"/>
     </row>
     <row r="220" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G220"/>
+      <c r="G220" s="19"/>
       <c r="J220"/>
     </row>
     <row r="221" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G221"/>
+      <c r="G221" s="19"/>
       <c r="J221"/>
     </row>
     <row r="222" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G222"/>
+      <c r="G222" s="19"/>
       <c r="J222"/>
     </row>
     <row r="223" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G223"/>
+      <c r="G223" s="19"/>
       <c r="J223"/>
     </row>
     <row r="224" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G224"/>
+      <c r="G224" s="19"/>
       <c r="J224"/>
     </row>
     <row r="225" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G225"/>
+      <c r="G225" s="19"/>
       <c r="J225"/>
     </row>
     <row r="226" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G226"/>
+      <c r="G226" s="19"/>
       <c r="J226"/>
     </row>
     <row r="227" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G227"/>
+      <c r="G227" s="19"/>
       <c r="J227"/>
     </row>
     <row r="228" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G228"/>
+      <c r="G228" s="19"/>
       <c r="J228"/>
     </row>
     <row r="229" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G229"/>
+      <c r="G229" s="19"/>
       <c r="J229"/>
     </row>
     <row r="230" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G230"/>
+      <c r="G230" s="19"/>
       <c r="J230"/>
     </row>
     <row r="231" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G231"/>
+      <c r="G231" s="19"/>
       <c r="J231"/>
     </row>
     <row r="232" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G232"/>
+      <c r="G232" s="19"/>
       <c r="J232"/>
     </row>
     <row r="233" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G233"/>
+      <c r="G233" s="19"/>
       <c r="J233"/>
     </row>
     <row r="234" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G234"/>
+      <c r="G234" s="19"/>
       <c r="J234"/>
     </row>
     <row r="235" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G235"/>
+      <c r="G235" s="19"/>
       <c r="J235"/>
     </row>
     <row r="236" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G236"/>
+      <c r="G236" s="19"/>
       <c r="J236"/>
     </row>
     <row r="237" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G237"/>
+      <c r="G237" s="19"/>
       <c r="J237"/>
     </row>
     <row r="238" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G238"/>
+      <c r="G238" s="19"/>
       <c r="J238"/>
     </row>
     <row r="239" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G239"/>
+      <c r="G239" s="19"/>
       <c r="J239"/>
     </row>
     <row r="240" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G240"/>
+      <c r="G240" s="19"/>
       <c r="J240"/>
     </row>
     <row r="241" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G241"/>
+      <c r="G241" s="19"/>
       <c r="J241"/>
     </row>
     <row r="242" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G242"/>
+      <c r="G242" s="19"/>
       <c r="J242"/>
     </row>
     <row r="243" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G243"/>
+      <c r="G243" s="19"/>
       <c r="J243"/>
     </row>
     <row r="244" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G244"/>
+      <c r="G244" s="19"/>
       <c r="J244"/>
     </row>
     <row r="245" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G245"/>
+      <c r="G245" s="19"/>
       <c r="J245"/>
     </row>
     <row r="246" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G246"/>
+      <c r="G246" s="19"/>
       <c r="J246"/>
     </row>
     <row r="247" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G247"/>
+      <c r="G247" s="19"/>
       <c r="J247"/>
     </row>
     <row r="248" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G248"/>
+      <c r="G248" s="19"/>
       <c r="J248"/>
     </row>
     <row r="249" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G249"/>
+      <c r="G249" s="19"/>
       <c r="J249"/>
     </row>
     <row r="250" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G250"/>
+      <c r="G250" s="19"/>
       <c r="J250"/>
     </row>
     <row r="251" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G251"/>
+      <c r="G251" s="19"/>
       <c r="J251"/>
     </row>
     <row r="252" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G252"/>
+      <c r="G252" s="19"/>
       <c r="J252"/>
     </row>
     <row r="253" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G253"/>
+      <c r="G253" s="19"/>
       <c r="J253"/>
     </row>
     <row r="254" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G254"/>
+      <c r="G254" s="19"/>
       <c r="J254"/>
     </row>
     <row r="255" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G255"/>
+      <c r="G255" s="19"/>
       <c r="J255"/>
     </row>
     <row r="256" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G256"/>
+      <c r="G256" s="19"/>
       <c r="J256"/>
     </row>
     <row r="257" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G257"/>
+      <c r="G257" s="19"/>
       <c r="J257"/>
     </row>
     <row r="258" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G258"/>
+      <c r="G258" s="19"/>
       <c r="J258"/>
     </row>
     <row r="259" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G259"/>
+      <c r="G259" s="19"/>
       <c r="J259"/>
     </row>
     <row r="260" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G260"/>
+      <c r="G260" s="19"/>
       <c r="J260"/>
     </row>
     <row r="261" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G261"/>
+      <c r="G261" s="19"/>
       <c r="J261"/>
     </row>
     <row r="262" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G262"/>
+      <c r="G262" s="19"/>
       <c r="J262"/>
     </row>
     <row r="263" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G263"/>
+      <c r="G263" s="19"/>
       <c r="J263"/>
     </row>
     <row r="264" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G264"/>
+      <c r="G264" s="19"/>
       <c r="J264"/>
     </row>
     <row r="265" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G265"/>
+      <c r="G265" s="19"/>
       <c r="J265"/>
     </row>
     <row r="266" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G266"/>
+      <c r="G266" s="19"/>
       <c r="J266"/>
     </row>
     <row r="267" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G267"/>
+      <c r="G267" s="19"/>
       <c r="J267"/>
     </row>
     <row r="268" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G268"/>
+      <c r="G268" s="19"/>
       <c r="J268"/>
     </row>
     <row r="269" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G269"/>
+      <c r="G269" s="19"/>
       <c r="J269"/>
     </row>
     <row r="270" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G270"/>
+      <c r="G270" s="19"/>
       <c r="J270"/>
     </row>
     <row r="271" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G271"/>
+      <c r="G271" s="19"/>
       <c r="J271"/>
     </row>
     <row r="272" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G272"/>
+      <c r="G272" s="19"/>
       <c r="J272"/>
     </row>
     <row r="273" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G273"/>
+      <c r="G273" s="19"/>
       <c r="J273"/>
     </row>
     <row r="274" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G274"/>
+      <c r="G274" s="19"/>
       <c r="J274"/>
     </row>
     <row r="275" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G275"/>
+      <c r="G275" s="19"/>
       <c r="J275"/>
     </row>
     <row r="276" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G276"/>
+      <c r="G276" s="19"/>
       <c r="J276"/>
     </row>
     <row r="277" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G277"/>
+      <c r="G277" s="19"/>
       <c r="J277"/>
     </row>
     <row r="278" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G278"/>
+      <c r="G278" s="19"/>
       <c r="J278"/>
     </row>
     <row r="279" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G279"/>
+      <c r="G279" s="19"/>
       <c r="J279"/>
     </row>
     <row r="280" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G280"/>
+      <c r="G280" s="19"/>
       <c r="J280"/>
     </row>
     <row r="281" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G281"/>
+      <c r="G281" s="19"/>
       <c r="J281"/>
     </row>
     <row r="282" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G282"/>
+      <c r="G282" s="19"/>
       <c r="J282"/>
     </row>
     <row r="283" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G283"/>
+      <c r="G283" s="19"/>
       <c r="J283"/>
     </row>
     <row r="284" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G284"/>
+      <c r="G284" s="19"/>
       <c r="J284"/>
     </row>
     <row r="285" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G285"/>
+      <c r="G285" s="19"/>
       <c r="J285"/>
     </row>
     <row r="286" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G286"/>
+      <c r="G286" s="19"/>
       <c r="J286"/>
     </row>
     <row r="287" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G287"/>
+      <c r="G287" s="19"/>
       <c r="J287"/>
     </row>
     <row r="288" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G288"/>
+      <c r="G288" s="19"/>
       <c r="J288"/>
     </row>
     <row r="289" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G289"/>
+      <c r="G289" s="19"/>
       <c r="J289"/>
     </row>
     <row r="290" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G290"/>
+      <c r="G290" s="19"/>
       <c r="J290"/>
     </row>
     <row r="291" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G291"/>
+      <c r="G291" s="19"/>
       <c r="J291"/>
     </row>
     <row r="292" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G292"/>
+      <c r="G292" s="19"/>
       <c r="J292"/>
     </row>
     <row r="293" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G293"/>
+      <c r="G293" s="19"/>
       <c r="J293"/>
     </row>
     <row r="294" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G294"/>
+      <c r="G294" s="19"/>
       <c r="J294"/>
     </row>
     <row r="295" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G295"/>
+      <c r="G295" s="19"/>
       <c r="J295"/>
     </row>
     <row r="296" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G296"/>
+      <c r="G296" s="19"/>
       <c r="J296"/>
     </row>
     <row r="297" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G297"/>
+      <c r="G297" s="19"/>
       <c r="J297"/>
     </row>
     <row r="298" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G298"/>
+      <c r="G298" s="19"/>
       <c r="J298"/>
     </row>
     <row r="299" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G299"/>
+      <c r="G299" s="19"/>
       <c r="J299"/>
     </row>
     <row r="300" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G300"/>
+      <c r="G300" s="19"/>
       <c r="J300"/>
     </row>
     <row r="301" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G301"/>
+      <c r="G301" s="19"/>
       <c r="J301"/>
     </row>
     <row r="302" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G302"/>
+      <c r="G302" s="19"/>
       <c r="J302"/>
     </row>
     <row r="303" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G303"/>
+      <c r="G303" s="19"/>
       <c r="J303"/>
     </row>
     <row r="304" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G304"/>
+      <c r="G304" s="19"/>
       <c r="J304"/>
     </row>
     <row r="305" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G305"/>
+      <c r="G305" s="19"/>
       <c r="J305"/>
     </row>
     <row r="306" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G306"/>
+      <c r="G306" s="19"/>
       <c r="J306"/>
     </row>
     <row r="307" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G307"/>
+      <c r="G307" s="19"/>
       <c r="J307"/>
     </row>
     <row r="308" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G308"/>
+      <c r="G308" s="19"/>
       <c r="J308"/>
     </row>
     <row r="309" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G309"/>
+      <c r="G309" s="19"/>
       <c r="J309"/>
     </row>
     <row r="310" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G310"/>
+      <c r="G310" s="19"/>
       <c r="J310"/>
     </row>
     <row r="311" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G311"/>
+      <c r="G311" s="19"/>
       <c r="J311"/>
     </row>
     <row r="312" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G312"/>
+      <c r="G312" s="19"/>
       <c r="J312"/>
     </row>
     <row r="313" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G313"/>
+      <c r="G313" s="19"/>
       <c r="J313"/>
     </row>
     <row r="314" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G314"/>
+      <c r="G314" s="19"/>
       <c r="J314"/>
     </row>
     <row r="315" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G315"/>
+      <c r="G315" s="19"/>
       <c r="J315"/>
     </row>
     <row r="316" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G316"/>
+      <c r="G316" s="19"/>
       <c r="J316"/>
     </row>
     <row r="317" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G317"/>
+      <c r="G317" s="19"/>
       <c r="J317"/>
     </row>
     <row r="318" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G318"/>
+      <c r="G318" s="19"/>
       <c r="J318"/>
     </row>
     <row r="319" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G319"/>
+      <c r="G319" s="19"/>
       <c r="J319"/>
     </row>
     <row r="320" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G320"/>
+      <c r="G320" s="19"/>
       <c r="J320"/>
     </row>
     <row r="321" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G321"/>
+      <c r="G321" s="19"/>
       <c r="J321"/>
     </row>
     <row r="322" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G322"/>
+      <c r="G322" s="19"/>
       <c r="J322"/>
     </row>
     <row r="323" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G323"/>
+      <c r="G323" s="19"/>
       <c r="J323"/>
     </row>
     <row r="324" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G324"/>
+      <c r="G324" s="19"/>
       <c r="J324"/>
     </row>
     <row r="325" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G325"/>
+      <c r="G325" s="19"/>
       <c r="J325"/>
     </row>
     <row r="326" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G326"/>
+      <c r="G326" s="19"/>
       <c r="J326"/>
     </row>
     <row r="327" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G327"/>
+      <c r="G327" s="19"/>
       <c r="J327"/>
     </row>
     <row r="328" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G328"/>
+      <c r="G328" s="19"/>
       <c r="J328"/>
     </row>
     <row r="329" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G329"/>
+      <c r="G329" s="19"/>
       <c r="J329"/>
     </row>
     <row r="330" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G330"/>
+      <c r="G330" s="19"/>
       <c r="J330"/>
     </row>
     <row r="331" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G331"/>
+      <c r="G331" s="19"/>
       <c r="J331"/>
     </row>
     <row r="332" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G332"/>
+      <c r="G332" s="19"/>
       <c r="J332"/>
     </row>
     <row r="333" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G333"/>
+      <c r="G333" s="19"/>
       <c r="J333"/>
     </row>
     <row r="334" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G334"/>
+      <c r="G334" s="19"/>
       <c r="J334"/>
     </row>
     <row r="335" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G335"/>
+      <c r="G335" s="19"/>
       <c r="J335"/>
     </row>
     <row r="336" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G336"/>
+      <c r="G336" s="19"/>
       <c r="J336"/>
     </row>
     <row r="337" spans="7:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G337"/>
+      <c r="G337" s="19"/>
       <c r="J337"/>
     </row>
     <row r="338" spans="7:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G338"/>
+      <c r="G338" s="19"/>
       <c r="J338"/>
     </row>
     <row r="339" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G339"/>
+      <c r="G339" s="19"/>
       <c r="J339"/>
     </row>
     <row r="340" spans="7:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G340"/>
+      <c r="G340" s="19"/>
       <c r="J340"/>
     </row>
     <row r="341" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G341"/>
+      <c r="G341" s="19"/>
       <c r="J341"/>
     </row>
     <row r="342" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G342"/>
+      <c r="G342" s="19"/>
       <c r="J342"/>
     </row>
     <row r="343" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G343"/>
+      <c r="G343" s="19"/>
       <c r="J343"/>
     </row>
     <row r="344" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G344"/>
+      <c r="G344" s="19"/>
       <c r="J344"/>
     </row>
     <row r="345" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G345"/>
+      <c r="G345" s="19"/>
       <c r="J345"/>
     </row>
     <row r="346" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G346"/>
+      <c r="G346" s="19"/>
       <c r="J346"/>
     </row>
     <row r="347" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G347"/>
+      <c r="G347" s="19"/>
       <c r="J347"/>
     </row>
     <row r="348" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G348"/>
+      <c r="G348" s="19"/>
       <c r="J348"/>
     </row>
     <row r="349" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G349"/>
+      <c r="G349" s="19"/>
       <c r="J349"/>
     </row>
     <row r="350" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G350"/>
+      <c r="G350" s="19"/>
       <c r="J350"/>
     </row>
     <row r="351" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G351"/>
+      <c r="G351" s="19"/>
       <c r="J351"/>
     </row>
     <row r="352" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G352"/>
+      <c r="G352" s="19"/>
       <c r="J352"/>
     </row>
     <row r="353" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G353"/>
+      <c r="G353" s="19"/>
       <c r="J353"/>
     </row>
     <row r="354" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G354"/>
+      <c r="G354" s="19"/>
       <c r="J354"/>
     </row>
     <row r="355" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G355"/>
+      <c r="G355" s="19"/>
       <c r="J355"/>
     </row>
     <row r="356" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G356"/>
+      <c r="G356" s="19"/>
       <c r="J356"/>
     </row>
     <row r="357" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G357"/>
+      <c r="G357" s="19"/>
       <c r="J357"/>
     </row>
     <row r="358" spans="7:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G358"/>
+      <c r="G358" s="19"/>
       <c r="J358"/>
     </row>
     <row r="359" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G359"/>
+      <c r="G359" s="19"/>
       <c r="J359"/>
     </row>
     <row r="360" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G360"/>
+      <c r="G360" s="19"/>
       <c r="J360"/>
     </row>
     <row r="361" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G361"/>
+      <c r="G361" s="19"/>
       <c r="J361"/>
     </row>
     <row r="362" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G362"/>
+      <c r="G362" s="19"/>
       <c r="J362"/>
     </row>
     <row r="363" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G363"/>
+      <c r="G363" s="19"/>
       <c r="J363"/>
     </row>
     <row r="364" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G364"/>
+      <c r="G364" s="19"/>
       <c r="J364"/>
     </row>
     <row r="365" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G365"/>
+      <c r="G365" s="19"/>
       <c r="J365"/>
     </row>
     <row r="366" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G366"/>
+      <c r="G366" s="19"/>
       <c r="J366"/>
     </row>
     <row r="367" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G367"/>
+      <c r="G367" s="19"/>
       <c r="J367"/>
     </row>
     <row r="368" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G368"/>
+      <c r="G368" s="19"/>
       <c r="J368"/>
     </row>
     <row r="369" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G369"/>
+      <c r="G369" s="19"/>
       <c r="J369"/>
     </row>
     <row r="370" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G370"/>
+      <c r="G370" s="19"/>
       <c r="J370"/>
     </row>
     <row r="371" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G371"/>
+      <c r="G371" s="19"/>
       <c r="J371"/>
     </row>
     <row r="372" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G372"/>
+      <c r="G372" s="19"/>
       <c r="J372"/>
     </row>
     <row r="373" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G373"/>
+      <c r="G373" s="19"/>
       <c r="J373"/>
     </row>
     <row r="374" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G374"/>
+      <c r="G374" s="19"/>
       <c r="J374"/>
     </row>
     <row r="375" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G375"/>
+      <c r="G375" s="19"/>
       <c r="J375"/>
     </row>
     <row r="376" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G376"/>
+      <c r="G376" s="19"/>
       <c r="J376"/>
     </row>
     <row r="377" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G377"/>
+      <c r="G377" s="19"/>
       <c r="J377"/>
     </row>
     <row r="378" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G378"/>
+      <c r="G378" s="19"/>
       <c r="J378"/>
     </row>
     <row r="379" spans="7:10" ht="15" x14ac:dyDescent="0.25">

--- a/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация Серверный шкаф.xlsx
+++ b/878.2023-АСУ ТП на выдачу/Документы на выдачу/22 и 24. Спецификация оборудования, изделия, материалов/Спецификация Серверный шкаф.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDC46E-F915-4BAE-91D3-37A5DB5ADD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB2C2D7-D2EC-4040-97CE-6BF15A7919B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Обозн</t>
   </si>
@@ -151,9 +151,6 @@
     <t>R5VSIT6004FT</t>
   </si>
   <si>
-    <t xml:space="preserve">Компактный отказоустойчивый 1U сервер </t>
-  </si>
-  <si>
     <t>GS-104-E1</t>
   </si>
   <si>
@@ -235,22 +232,13 @@
     <t>Цена б,НДС</t>
   </si>
   <si>
-    <t>АРМ</t>
-  </si>
-  <si>
-    <t>IPC-SYS1-3-A9**</t>
-  </si>
-  <si>
-    <t>Advantix</t>
-  </si>
-  <si>
-    <t>АРМ Оператора с характеристиками не хуже CPU Core i5, RAM 8 ГБ, HDD 1ТБ, DVD-ROM, 2×LAN 10/100/1000, звуковая карта интегрированная, ОС AstraLinux SE Смоленск</t>
-  </si>
-  <si>
-    <t>шт.</t>
-  </si>
-  <si>
-    <t>Сервер с характеристиками не хуже raid массив HDD, возможность горячей замены HDD, CPU Intel Xeon E3-1230v6 3.5 ГГц, RAM 16 Гб, 3×LAN 10/100/1000,  ОС AstraLinux SE Смоленск</t>
+    <t>Промышленный сервер Advantix Intellect</t>
+  </si>
+  <si>
+    <t>Промышленная ЭВМ AdvantiX</t>
+  </si>
+  <si>
+    <t>IPC-SYS1-2</t>
   </si>
 </sst>
 </file>
@@ -304,7 +292,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,14 +305,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -336,6 +318,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -361,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -401,24 +396,17 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -719,10 +707,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J698"/>
+  <dimension ref="A1:J697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,7 +721,7 @@
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="6" customWidth="1"/>
@@ -759,11 +747,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>67</v>
+      <c r="G1" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,7 +773,7 @@
       <c r="F2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="12">
         <v>7</v>
       </c>
       <c r="H2" s="12">
@@ -805,13 +793,13 @@
       <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="G3" s="16">
-        <f>SUM(H4:H28)</f>
-        <v>692876.82000000007</v>
+      <c r="G3" s="13">
+        <f>SUM(H4:H29)</f>
+        <v>2027336.86</v>
       </c>
       <c r="H3" s="13">
         <f t="shared" ref="H3:H15" si="0">G3*F3</f>
-        <v>1385753.6400000001</v>
+        <v>4054673.72</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -831,10 +819,10 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="17">
         <v>240818.32</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>240818.32</v>
       </c>
@@ -856,10 +844,10 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="17">
         <v>21006.79</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>21006.79</v>
       </c>
@@ -881,10 +869,10 @@
       <c r="F6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="17">
         <v>573.23</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="17">
         <f t="shared" si="0"/>
         <v>2292.92</v>
       </c>
@@ -906,10 +894,10 @@
       <c r="F7" s="2">
         <v>8</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="17">
         <v>736.3</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>5890.4</v>
       </c>
@@ -931,10 +919,10 @@
       <c r="F8" s="2">
         <v>2</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="17">
         <v>15933.33</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>31866.66</v>
       </c>
@@ -956,10 +944,10 @@
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="17">
         <v>5258.86</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>5258.86</v>
       </c>
@@ -981,10 +969,10 @@
       <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="17">
         <v>3052.71</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>3052.71</v>
       </c>
@@ -1006,10 +994,10 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="17">
         <v>28000.83</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="17">
         <f t="shared" si="0"/>
         <v>28000.83</v>
       </c>
@@ -1017,13 +1005,13 @@
     <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -1031,19 +1019,21 @@
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="12">
+      <c r="G12" s="17">
+        <v>301383.03000000003</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>301383.03000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -1054,10 +1044,10 @@
       <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="17">
         <v>106619.48</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>106619.48</v>
       </c>
@@ -1065,13 +1055,13 @@
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -1080,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="12">
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1088,13 +1078,13 @@
     <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -1102,10 +1092,10 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="17">
         <v>115314.17</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>115314.17</v>
       </c>
@@ -1127,10 +1117,10 @@
       <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="17">
         <v>1176.69</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="17">
         <f t="shared" ref="H16" si="1">G16*F16</f>
         <v>1176.69</v>
       </c>
@@ -1138,10 +1128,10 @@
     <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1152,11 +1142,11 @@
       <c r="F17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="17">
         <v>458.33</v>
       </c>
-      <c r="H17" s="12">
-        <f t="shared" ref="H17:H28" si="2">G17*F17</f>
+      <c r="H17" s="17">
+        <f t="shared" ref="H17:H29" si="2">G17*F17</f>
         <v>458.33</v>
       </c>
     </row>
@@ -1177,10 +1167,10 @@
       <c r="F18" s="2">
         <v>3</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="17">
         <v>213.21</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="17">
         <f t="shared" si="2"/>
         <v>639.63</v>
       </c>
@@ -1188,13 +1178,13 @@
     <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -1202,10 +1192,10 @@
       <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="17">
         <v>1091.67</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="17">
         <f t="shared" si="2"/>
         <v>1091.67</v>
       </c>
@@ -1219,7 +1209,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1227,10 +1217,10 @@
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="17">
         <v>56066.67</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="17">
         <f t="shared" si="2"/>
         <v>56066.67</v>
       </c>
@@ -1244,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1252,10 +1242,10 @@
       <c r="F21" s="2">
         <v>2</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="17">
         <v>34533.33</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="17">
         <f t="shared" si="2"/>
         <v>69066.66</v>
       </c>
@@ -1263,7 +1253,7 @@
     <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>8</v>
@@ -1277,10 +1267,10 @@
       <c r="F22" s="2">
         <v>2</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="17">
         <v>430.07</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="17">
         <f t="shared" si="2"/>
         <v>860.14</v>
       </c>
@@ -1302,10 +1292,10 @@
       <c r="F23" s="2">
         <v>7</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="17">
         <v>37.53</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="17">
         <f t="shared" si="2"/>
         <v>262.71000000000004</v>
       </c>
@@ -1323,10 +1313,10 @@
       <c r="F24" s="2">
         <v>10</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="17">
         <v>33.33</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="17">
         <f t="shared" si="2"/>
         <v>333.29999999999995</v>
       </c>
@@ -1334,10 +1324,10 @@
     <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -1348,10 +1338,10 @@
       <c r="F25" s="2">
         <v>2</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="17">
         <v>909.33</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="17">
         <f t="shared" si="2"/>
         <v>1818.66</v>
       </c>
@@ -1359,10 +1349,10 @@
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
@@ -1373,10 +1363,10 @@
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="17">
         <v>228</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="17">
         <f t="shared" si="2"/>
         <v>456</v>
       </c>
@@ -1384,10 +1374,10 @@
     <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -1398,10 +1388,10 @@
       <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="17">
         <v>296.88</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="17">
         <f t="shared" si="2"/>
         <v>296.88</v>
       </c>
@@ -1409,10 +1399,10 @@
     <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -1423,1400 +1413,1332 @@
       <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="17">
         <v>114.17</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="17">
         <f t="shared" si="2"/>
         <v>228.34</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="7:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="7:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="7:7" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="7:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="G64" s="18"/>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="18">
+        <v>147582.43</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="2"/>
+        <v>1033077.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="35" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="37" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="39" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="43" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="44" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="45" s="1" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="47" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="48" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="7:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G64"/>
+      <c r="J64"/>
     </row>
     <row r="65" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G65" s="19"/>
+      <c r="G65"/>
       <c r="J65"/>
     </row>
     <row r="66" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G66" s="19"/>
+      <c r="G66"/>
       <c r="J66"/>
     </row>
     <row r="67" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G67" s="19"/>
+      <c r="G67"/>
       <c r="J67"/>
     </row>
     <row r="68" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G68" s="19"/>
+      <c r="G68"/>
       <c r="J68"/>
     </row>
     <row r="69" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G69" s="19"/>
+      <c r="G69"/>
       <c r="J69"/>
     </row>
     <row r="70" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G70" s="19"/>
+      <c r="G70"/>
       <c r="J70"/>
     </row>
     <row r="71" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G71" s="19"/>
+      <c r="G71"/>
       <c r="J71"/>
     </row>
     <row r="72" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G72" s="19"/>
+      <c r="G72"/>
       <c r="J72"/>
     </row>
     <row r="73" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G73" s="19"/>
+      <c r="G73"/>
       <c r="J73"/>
     </row>
     <row r="74" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G74" s="19"/>
+      <c r="G74"/>
       <c r="J74"/>
     </row>
     <row r="75" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G75" s="19"/>
+      <c r="G75"/>
       <c r="J75"/>
     </row>
     <row r="76" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G76" s="19"/>
+      <c r="G76"/>
       <c r="J76"/>
     </row>
     <row r="77" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G77" s="19"/>
+      <c r="G77"/>
       <c r="J77"/>
     </row>
     <row r="78" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G78" s="19"/>
+      <c r="G78"/>
       <c r="J78"/>
     </row>
     <row r="79" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G79" s="19"/>
+      <c r="G79"/>
       <c r="J79"/>
     </row>
     <row r="80" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G80" s="19"/>
+      <c r="G80"/>
       <c r="J80"/>
     </row>
     <row r="81" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G81" s="19"/>
+      <c r="G81"/>
       <c r="J81"/>
     </row>
     <row r="82" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G82" s="19"/>
+      <c r="G82"/>
       <c r="J82"/>
     </row>
     <row r="83" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G83" s="19"/>
+      <c r="G83"/>
       <c r="J83"/>
     </row>
     <row r="84" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G84" s="19"/>
+      <c r="G84"/>
       <c r="J84"/>
     </row>
     <row r="85" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G85" s="19"/>
+      <c r="G85"/>
       <c r="J85"/>
     </row>
     <row r="86" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G86" s="19"/>
+      <c r="G86"/>
       <c r="J86"/>
     </row>
     <row r="87" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G87" s="19"/>
+      <c r="G87"/>
       <c r="J87"/>
     </row>
     <row r="88" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G88" s="19"/>
+      <c r="G88"/>
       <c r="J88"/>
     </row>
     <row r="89" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G89" s="19"/>
+      <c r="G89"/>
       <c r="J89"/>
     </row>
     <row r="90" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G90" s="19"/>
+      <c r="G90"/>
       <c r="J90"/>
     </row>
     <row r="91" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G91" s="19"/>
+      <c r="G91"/>
       <c r="J91"/>
     </row>
-    <row r="92" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G92" s="19"/>
+    <row r="92" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92"/>
       <c r="J92"/>
     </row>
     <row r="93" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G93" s="19"/>
+      <c r="G93"/>
       <c r="J93"/>
     </row>
-    <row r="94" spans="7:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G94" s="19"/>
+    <row r="94" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G94"/>
       <c r="J94"/>
     </row>
     <row r="95" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G95" s="19"/>
+      <c r="G95"/>
       <c r="J95"/>
     </row>
     <row r="96" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G96" s="19"/>
+      <c r="G96"/>
       <c r="J96"/>
     </row>
     <row r="97" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G97" s="19"/>
+      <c r="G97"/>
       <c r="J97"/>
     </row>
     <row r="98" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G98" s="19"/>
+      <c r="G98"/>
       <c r="J98"/>
     </row>
     <row r="99" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G99" s="19"/>
+      <c r="G99"/>
       <c r="J99"/>
     </row>
     <row r="100" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G100" s="19"/>
+      <c r="G100"/>
       <c r="J100"/>
     </row>
     <row r="101" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G101" s="19"/>
+      <c r="G101"/>
       <c r="J101"/>
     </row>
     <row r="102" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G102" s="19"/>
+      <c r="G102"/>
       <c r="J102"/>
     </row>
     <row r="103" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G103" s="19"/>
+      <c r="G103"/>
       <c r="J103"/>
     </row>
     <row r="104" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G104" s="19"/>
+      <c r="G104"/>
       <c r="J104"/>
     </row>
     <row r="105" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G105" s="19"/>
+      <c r="G105"/>
       <c r="J105"/>
     </row>
     <row r="106" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G106" s="19"/>
+      <c r="G106"/>
       <c r="J106"/>
     </row>
     <row r="107" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G107" s="19"/>
+      <c r="G107"/>
       <c r="J107"/>
     </row>
     <row r="108" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G108" s="19"/>
+      <c r="G108"/>
       <c r="J108"/>
     </row>
     <row r="109" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G109" s="19"/>
+      <c r="G109"/>
       <c r="J109"/>
     </row>
     <row r="110" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G110" s="19"/>
+      <c r="G110"/>
       <c r="J110"/>
     </row>
     <row r="111" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G111" s="19"/>
+      <c r="G111"/>
       <c r="J111"/>
     </row>
     <row r="112" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G112" s="19"/>
+      <c r="G112"/>
       <c r="J112"/>
     </row>
     <row r="113" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G113" s="19"/>
+      <c r="G113"/>
       <c r="J113"/>
     </row>
     <row r="114" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G114" s="19"/>
+      <c r="G114"/>
       <c r="J114"/>
     </row>
     <row r="115" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G115" s="19"/>
+      <c r="G115"/>
       <c r="J115"/>
     </row>
     <row r="116" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G116" s="19"/>
+      <c r="G116"/>
       <c r="J116"/>
     </row>
     <row r="117" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G117" s="19"/>
+      <c r="G117"/>
       <c r="J117"/>
     </row>
     <row r="118" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G118" s="19"/>
+      <c r="G118"/>
       <c r="J118"/>
     </row>
     <row r="119" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G119" s="19"/>
+      <c r="G119"/>
       <c r="J119"/>
     </row>
     <row r="120" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G120" s="19"/>
+      <c r="G120"/>
       <c r="J120"/>
     </row>
     <row r="121" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G121" s="19"/>
+      <c r="G121"/>
       <c r="J121"/>
     </row>
     <row r="122" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G122" s="19"/>
+      <c r="G122"/>
       <c r="J122"/>
     </row>
     <row r="123" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G123" s="19"/>
+      <c r="G123"/>
       <c r="J123"/>
     </row>
     <row r="124" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G124" s="19"/>
+      <c r="G124"/>
       <c r="J124"/>
     </row>
     <row r="125" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G125" s="19"/>
+      <c r="G125"/>
       <c r="J125"/>
     </row>
     <row r="126" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G126" s="19"/>
+      <c r="G126"/>
       <c r="J126"/>
     </row>
     <row r="127" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G127" s="19"/>
+      <c r="G127"/>
       <c r="J127"/>
     </row>
     <row r="128" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G128" s="19"/>
+      <c r="G128"/>
       <c r="J128"/>
     </row>
     <row r="129" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G129" s="19"/>
+      <c r="G129"/>
       <c r="J129"/>
     </row>
     <row r="130" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G130" s="19"/>
+      <c r="G130"/>
       <c r="J130"/>
     </row>
     <row r="131" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G131" s="19"/>
+      <c r="G131"/>
       <c r="J131"/>
     </row>
     <row r="132" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G132" s="19"/>
+      <c r="G132"/>
       <c r="J132"/>
     </row>
     <row r="133" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G133" s="19"/>
+      <c r="G133"/>
       <c r="J133"/>
     </row>
     <row r="134" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G134" s="19"/>
+      <c r="G134"/>
       <c r="J134"/>
     </row>
     <row r="135" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G135" s="19"/>
+      <c r="G135"/>
       <c r="J135"/>
     </row>
     <row r="136" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G136" s="19"/>
+      <c r="G136"/>
       <c r="J136"/>
     </row>
     <row r="137" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G137" s="19"/>
+      <c r="G137"/>
       <c r="J137"/>
     </row>
     <row r="138" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G138" s="19"/>
+      <c r="G138"/>
       <c r="J138"/>
     </row>
     <row r="139" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G139" s="19"/>
+      <c r="G139"/>
       <c r="J139"/>
     </row>
     <row r="140" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G140" s="19"/>
+      <c r="G140"/>
       <c r="J140"/>
     </row>
     <row r="141" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G141" s="19"/>
+      <c r="G141"/>
       <c r="J141"/>
     </row>
     <row r="142" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G142" s="19"/>
+      <c r="G142"/>
       <c r="J142"/>
     </row>
     <row r="143" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G143" s="19"/>
+      <c r="G143"/>
       <c r="J143"/>
     </row>
     <row r="144" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G144" s="19"/>
+      <c r="G144"/>
       <c r="J144"/>
     </row>
     <row r="145" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G145" s="19"/>
+      <c r="G145"/>
       <c r="J145"/>
     </row>
     <row r="146" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G146" s="19"/>
+      <c r="G146"/>
       <c r="J146"/>
     </row>
     <row r="147" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G147" s="19"/>
+      <c r="G147"/>
       <c r="J147"/>
     </row>
     <row r="148" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G148" s="19"/>
+      <c r="G148"/>
       <c r="J148"/>
     </row>
     <row r="149" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G149" s="19"/>
+      <c r="G149"/>
       <c r="J149"/>
     </row>
     <row r="150" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G150" s="19"/>
+      <c r="G150"/>
       <c r="J150"/>
     </row>
     <row r="151" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G151" s="19"/>
+      <c r="G151"/>
       <c r="J151"/>
     </row>
     <row r="152" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G152" s="19"/>
+      <c r="G152"/>
       <c r="J152"/>
     </row>
     <row r="153" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G153" s="19"/>
+      <c r="G153"/>
       <c r="J153"/>
     </row>
     <row r="154" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G154" s="19"/>
+      <c r="G154"/>
       <c r="J154"/>
     </row>
     <row r="155" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G155" s="19"/>
+      <c r="G155"/>
       <c r="J155"/>
     </row>
     <row r="156" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G156" s="19"/>
+      <c r="G156"/>
       <c r="J156"/>
     </row>
     <row r="157" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G157" s="19"/>
+      <c r="G157"/>
       <c r="J157"/>
     </row>
     <row r="158" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G158" s="19"/>
+      <c r="G158"/>
       <c r="J158"/>
     </row>
     <row r="159" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G159" s="19"/>
+      <c r="G159"/>
       <c r="J159"/>
     </row>
-    <row r="160" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G160" s="19"/>
+    <row r="160" spans="7:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160"/>
       <c r="J160"/>
     </row>
-    <row r="161" spans="7:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G161" s="19"/>
+    <row r="161" spans="7:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161"/>
       <c r="J161"/>
     </row>
-    <row r="162" spans="7:10" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G162" s="19"/>
+    <row r="162" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G162"/>
       <c r="J162"/>
     </row>
     <row r="163" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G163" s="19"/>
+      <c r="G163"/>
       <c r="J163"/>
     </row>
     <row r="164" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G164" s="19"/>
+      <c r="G164"/>
       <c r="J164"/>
     </row>
     <row r="165" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G165" s="19"/>
+      <c r="G165"/>
       <c r="J165"/>
     </row>
     <row r="166" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G166" s="19"/>
+      <c r="G166"/>
       <c r="J166"/>
     </row>
     <row r="167" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G167" s="19"/>
+      <c r="G167"/>
       <c r="J167"/>
     </row>
     <row r="168" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G168" s="19"/>
+      <c r="G168"/>
       <c r="J168"/>
     </row>
     <row r="169" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G169" s="19"/>
+      <c r="G169"/>
       <c r="J169"/>
     </row>
     <row r="170" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G170" s="19"/>
+      <c r="G170"/>
       <c r="J170"/>
     </row>
     <row r="171" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G171" s="19"/>
+      <c r="G171"/>
       <c r="J171"/>
     </row>
     <row r="172" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G172" s="19"/>
+      <c r="G172"/>
       <c r="J172"/>
     </row>
     <row r="173" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G173" s="19"/>
+      <c r="G173"/>
       <c r="J173"/>
     </row>
     <row r="174" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G174" s="19"/>
+      <c r="G174"/>
       <c r="J174"/>
     </row>
     <row r="175" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G175" s="19"/>
+      <c r="G175"/>
       <c r="J175"/>
     </row>
     <row r="176" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G176" s="19"/>
+      <c r="G176"/>
       <c r="J176"/>
     </row>
     <row r="177" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G177" s="19"/>
+      <c r="G177"/>
       <c r="J177"/>
     </row>
     <row r="178" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G178" s="19"/>
+      <c r="G178"/>
       <c r="J178"/>
     </row>
     <row r="179" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G179" s="19"/>
+      <c r="G179"/>
       <c r="J179"/>
     </row>
     <row r="180" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G180" s="19"/>
+      <c r="G180"/>
       <c r="J180"/>
     </row>
     <row r="181" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G181" s="19"/>
+      <c r="G181"/>
       <c r="J181"/>
     </row>
     <row r="182" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G182" s="19"/>
+      <c r="G182"/>
       <c r="J182"/>
     </row>
     <row r="183" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G183" s="19"/>
+      <c r="G183"/>
       <c r="J183"/>
     </row>
     <row r="184" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G184" s="19"/>
+      <c r="G184"/>
       <c r="J184"/>
     </row>
     <row r="185" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G185" s="19"/>
+      <c r="G185"/>
       <c r="J185"/>
     </row>
     <row r="186" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G186" s="19"/>
+      <c r="G186"/>
       <c r="J186"/>
     </row>
     <row r="187" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G187" s="19"/>
+      <c r="G187"/>
       <c r="J187"/>
     </row>
     <row r="188" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G188" s="19"/>
+      <c r="G188"/>
       <c r="J188"/>
     </row>
     <row r="189" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G189" s="19"/>
+      <c r="G189"/>
       <c r="J189"/>
     </row>
     <row r="190" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G190" s="19"/>
+      <c r="G190"/>
       <c r="J190"/>
     </row>
     <row r="191" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G191" s="19"/>
+      <c r="G191"/>
       <c r="J191"/>
     </row>
     <row r="192" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G192" s="19"/>
+      <c r="G192"/>
       <c r="J192"/>
     </row>
     <row r="193" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G193" s="19"/>
+      <c r="G193"/>
       <c r="J193"/>
     </row>
     <row r="194" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G194" s="19"/>
+      <c r="G194"/>
       <c r="J194"/>
     </row>
     <row r="195" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G195" s="19"/>
+      <c r="G195"/>
       <c r="J195"/>
     </row>
     <row r="196" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G196" s="19"/>
+      <c r="G196"/>
       <c r="J196"/>
     </row>
     <row r="197" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G197" s="19"/>
+      <c r="G197"/>
       <c r="J197"/>
     </row>
     <row r="198" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G198" s="19"/>
+      <c r="G198"/>
       <c r="J198"/>
     </row>
     <row r="199" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G199" s="19"/>
+      <c r="G199"/>
       <c r="J199"/>
     </row>
     <row r="200" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G200" s="19"/>
+      <c r="G200"/>
       <c r="J200"/>
     </row>
     <row r="201" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G201" s="19"/>
+      <c r="G201"/>
       <c r="J201"/>
     </row>
     <row r="202" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G202" s="19"/>
+      <c r="G202"/>
       <c r="J202"/>
     </row>
     <row r="203" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G203" s="19"/>
+      <c r="G203"/>
       <c r="J203"/>
     </row>
     <row r="204" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G204" s="19"/>
+      <c r="G204"/>
       <c r="J204"/>
     </row>
     <row r="205" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G205" s="19"/>
+      <c r="G205"/>
       <c r="J205"/>
     </row>
     <row r="206" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G206" s="19"/>
+      <c r="G206"/>
       <c r="J206"/>
     </row>
     <row r="207" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G207" s="19"/>
+      <c r="G207"/>
       <c r="J207"/>
     </row>
     <row r="208" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G208" s="19"/>
+      <c r="G208"/>
       <c r="J208"/>
     </row>
     <row r="209" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G209" s="19"/>
+      <c r="G209"/>
       <c r="J209"/>
     </row>
     <row r="210" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G210" s="19"/>
+      <c r="G210"/>
       <c r="J210"/>
     </row>
     <row r="211" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G211" s="19"/>
+      <c r="G211"/>
       <c r="J211"/>
     </row>
     <row r="212" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G212" s="19"/>
+      <c r="G212"/>
       <c r="J212"/>
     </row>
     <row r="213" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G213" s="19"/>
+      <c r="G213"/>
       <c r="J213"/>
     </row>
-    <row r="214" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G214" s="19"/>
+    <row r="214" spans="7:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G214"/>
       <c r="J214"/>
     </row>
-    <row r="215" spans="7:10" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G215" s="19"/>
+    <row r="215" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G215"/>
       <c r="J215"/>
     </row>
-    <row r="216" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G216" s="19"/>
+    <row r="216" spans="7:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G216"/>
       <c r="J216"/>
     </row>
-    <row r="217" spans="7:10" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G217" s="19"/>
+    <row r="217" spans="7:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G217"/>
       <c r="J217"/>
     </row>
-    <row r="218" spans="7:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G218" s="19"/>
+    <row r="218" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G218"/>
       <c r="J218"/>
     </row>
     <row r="219" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G219" s="19"/>
+      <c r="G219"/>
       <c r="J219"/>
     </row>
     <row r="220" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G220" s="19"/>
+      <c r="G220"/>
       <c r="J220"/>
     </row>
     <row r="221" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G221" s="19"/>
+      <c r="G221"/>
       <c r="J221"/>
     </row>
     <row r="222" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G222" s="19"/>
+      <c r="G222"/>
       <c r="J222"/>
     </row>
     <row r="223" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G223" s="19"/>
+      <c r="G223"/>
       <c r="J223"/>
     </row>
     <row r="224" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G224" s="19"/>
+      <c r="G224"/>
       <c r="J224"/>
     </row>
     <row r="225" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G225" s="19"/>
+      <c r="G225"/>
       <c r="J225"/>
     </row>
     <row r="226" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G226" s="19"/>
+      <c r="G226"/>
       <c r="J226"/>
     </row>
     <row r="227" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G227" s="19"/>
+      <c r="G227"/>
       <c r="J227"/>
     </row>
     <row r="228" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G228" s="19"/>
+      <c r="G228"/>
       <c r="J228"/>
     </row>
     <row r="229" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G229" s="19"/>
+      <c r="G229"/>
       <c r="J229"/>
     </row>
     <row r="230" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G230" s="19"/>
+      <c r="G230"/>
       <c r="J230"/>
     </row>
     <row r="231" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G231" s="19"/>
+      <c r="G231"/>
       <c r="J231"/>
     </row>
     <row r="232" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G232" s="19"/>
+      <c r="G232"/>
       <c r="J232"/>
     </row>
     <row r="233" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G233" s="19"/>
+      <c r="G233"/>
       <c r="J233"/>
     </row>
     <row r="234" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G234" s="19"/>
+      <c r="G234"/>
       <c r="J234"/>
     </row>
     <row r="235" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G235" s="19"/>
+      <c r="G235"/>
       <c r="J235"/>
     </row>
     <row r="236" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G236" s="19"/>
+      <c r="G236"/>
       <c r="J236"/>
     </row>
-    <row r="237" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G237" s="19"/>
+    <row r="237" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237"/>
       <c r="J237"/>
     </row>
-    <row r="238" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G238" s="19"/>
+    <row r="238" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G238"/>
       <c r="J238"/>
     </row>
     <row r="239" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G239" s="19"/>
+      <c r="G239"/>
       <c r="J239"/>
     </row>
     <row r="240" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G240" s="19"/>
+      <c r="G240"/>
       <c r="J240"/>
     </row>
     <row r="241" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G241" s="19"/>
+      <c r="G241"/>
       <c r="J241"/>
     </row>
     <row r="242" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G242" s="19"/>
+      <c r="G242"/>
       <c r="J242"/>
     </row>
     <row r="243" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G243" s="19"/>
+      <c r="G243"/>
       <c r="J243"/>
     </row>
     <row r="244" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G244" s="19"/>
+      <c r="G244"/>
       <c r="J244"/>
     </row>
     <row r="245" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G245" s="19"/>
+      <c r="G245"/>
       <c r="J245"/>
     </row>
     <row r="246" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G246" s="19"/>
+      <c r="G246"/>
       <c r="J246"/>
     </row>
     <row r="247" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G247" s="19"/>
+      <c r="G247"/>
       <c r="J247"/>
     </row>
     <row r="248" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G248" s="19"/>
+      <c r="G248"/>
       <c r="J248"/>
     </row>
     <row r="249" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G249" s="19"/>
+      <c r="G249"/>
       <c r="J249"/>
     </row>
     <row r="250" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G250" s="19"/>
+      <c r="G250"/>
       <c r="J250"/>
     </row>
     <row r="251" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G251" s="19"/>
+      <c r="G251"/>
       <c r="J251"/>
     </row>
     <row r="252" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G252" s="19"/>
+      <c r="G252"/>
       <c r="J252"/>
     </row>
     <row r="253" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G253" s="19"/>
+      <c r="G253"/>
       <c r="J253"/>
     </row>
     <row r="254" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G254" s="19"/>
+      <c r="G254"/>
       <c r="J254"/>
     </row>
     <row r="255" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G255" s="19"/>
+      <c r="G255"/>
       <c r="J255"/>
     </row>
     <row r="256" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G256" s="19"/>
+      <c r="G256"/>
       <c r="J256"/>
     </row>
     <row r="257" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G257" s="19"/>
+      <c r="G257"/>
       <c r="J257"/>
     </row>
     <row r="258" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G258" s="19"/>
+      <c r="G258"/>
       <c r="J258"/>
     </row>
     <row r="259" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G259" s="19"/>
+      <c r="G259"/>
       <c r="J259"/>
     </row>
     <row r="260" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G260" s="19"/>
+      <c r="G260"/>
       <c r="J260"/>
     </row>
     <row r="261" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G261" s="19"/>
+      <c r="G261"/>
       <c r="J261"/>
     </row>
     <row r="262" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G262" s="19"/>
+      <c r="G262"/>
       <c r="J262"/>
     </row>
     <row r="263" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G263" s="19"/>
+      <c r="G263"/>
       <c r="J263"/>
     </row>
     <row r="264" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G264" s="19"/>
+      <c r="G264"/>
       <c r="J264"/>
     </row>
     <row r="265" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G265" s="19"/>
+      <c r="G265"/>
       <c r="J265"/>
     </row>
     <row r="266" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G266" s="19"/>
+      <c r="G266"/>
       <c r="J266"/>
     </row>
     <row r="267" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G267" s="19"/>
+      <c r="G267"/>
       <c r="J267"/>
     </row>
     <row r="268" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G268" s="19"/>
+      <c r="G268"/>
       <c r="J268"/>
     </row>
     <row r="269" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G269" s="19"/>
+      <c r="G269"/>
       <c r="J269"/>
     </row>
     <row r="270" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G270" s="19"/>
+      <c r="G270"/>
       <c r="J270"/>
     </row>
     <row r="271" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G271" s="19"/>
+      <c r="G271"/>
       <c r="J271"/>
     </row>
     <row r="272" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G272" s="19"/>
+      <c r="G272"/>
       <c r="J272"/>
     </row>
     <row r="273" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G273" s="19"/>
+      <c r="G273"/>
       <c r="J273"/>
     </row>
     <row r="274" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G274" s="19"/>
+      <c r="G274"/>
       <c r="J274"/>
     </row>
     <row r="275" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G275" s="19"/>
+      <c r="G275"/>
       <c r="J275"/>
     </row>
     <row r="276" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G276" s="19"/>
+      <c r="G276"/>
       <c r="J276"/>
     </row>
     <row r="277" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G277" s="19"/>
+      <c r="G277"/>
       <c r="J277"/>
     </row>
     <row r="278" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G278" s="19"/>
+      <c r="G278"/>
       <c r="J278"/>
     </row>
     <row r="279" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G279" s="19"/>
+      <c r="G279"/>
       <c r="J279"/>
     </row>
     <row r="280" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G280" s="19"/>
+      <c r="G280"/>
       <c r="J280"/>
     </row>
     <row r="281" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G281" s="19"/>
+      <c r="G281"/>
       <c r="J281"/>
     </row>
     <row r="282" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G282" s="19"/>
+      <c r="G282"/>
       <c r="J282"/>
     </row>
     <row r="283" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G283" s="19"/>
+      <c r="G283"/>
       <c r="J283"/>
     </row>
     <row r="284" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G284" s="19"/>
+      <c r="G284"/>
       <c r="J284"/>
     </row>
-    <row r="285" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G285" s="19"/>
+    <row r="285" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G285"/>
       <c r="J285"/>
     </row>
-    <row r="286" spans="7:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G286" s="19"/>
+    <row r="286" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G286"/>
       <c r="J286"/>
     </row>
-    <row r="287" spans="7:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G287" s="19"/>
+    <row r="287" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G287"/>
       <c r="J287"/>
     </row>
     <row r="288" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G288" s="19"/>
+      <c r="G288"/>
       <c r="J288"/>
     </row>
     <row r="289" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G289" s="19"/>
+      <c r="G289"/>
       <c r="J289"/>
     </row>
     <row r="290" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G290" s="19"/>
+      <c r="G290"/>
       <c r="J290"/>
     </row>
     <row r="291" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G291" s="19"/>
+      <c r="G291"/>
       <c r="J291"/>
     </row>
     <row r="292" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G292" s="19"/>
+      <c r="G292"/>
       <c r="J292"/>
     </row>
     <row r="293" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G293" s="19"/>
+      <c r="G293"/>
       <c r="J293"/>
     </row>
     <row r="294" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G294" s="19"/>
+      <c r="G294"/>
       <c r="J294"/>
     </row>
     <row r="295" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G295" s="19"/>
+      <c r="G295"/>
       <c r="J295"/>
     </row>
     <row r="296" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G296" s="19"/>
+      <c r="G296"/>
       <c r="J296"/>
     </row>
     <row r="297" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G297" s="19"/>
+      <c r="G297"/>
       <c r="J297"/>
     </row>
     <row r="298" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G298" s="19"/>
+      <c r="G298"/>
       <c r="J298"/>
     </row>
     <row r="299" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G299" s="19"/>
+      <c r="G299"/>
       <c r="J299"/>
     </row>
     <row r="300" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G300" s="19"/>
+      <c r="G300"/>
       <c r="J300"/>
     </row>
     <row r="301" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G301" s="19"/>
+      <c r="G301"/>
       <c r="J301"/>
     </row>
     <row r="302" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G302" s="19"/>
+      <c r="G302"/>
       <c r="J302"/>
     </row>
     <row r="303" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G303" s="19"/>
+      <c r="G303"/>
       <c r="J303"/>
     </row>
     <row r="304" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G304" s="19"/>
+      <c r="G304"/>
       <c r="J304"/>
     </row>
     <row r="305" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G305" s="19"/>
+      <c r="G305"/>
       <c r="J305"/>
     </row>
     <row r="306" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G306" s="19"/>
+      <c r="G306"/>
       <c r="J306"/>
     </row>
     <row r="307" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G307" s="19"/>
+      <c r="G307"/>
       <c r="J307"/>
     </row>
     <row r="308" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G308" s="19"/>
+      <c r="G308"/>
       <c r="J308"/>
     </row>
     <row r="309" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G309" s="19"/>
+      <c r="G309"/>
       <c r="J309"/>
     </row>
     <row r="310" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G310" s="19"/>
+      <c r="G310"/>
       <c r="J310"/>
     </row>
     <row r="311" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G311" s="19"/>
+      <c r="G311"/>
       <c r="J311"/>
     </row>
     <row r="312" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G312" s="19"/>
+      <c r="G312"/>
       <c r="J312"/>
     </row>
     <row r="313" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G313" s="19"/>
+      <c r="G313"/>
       <c r="J313"/>
     </row>
     <row r="314" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G314" s="19"/>
+      <c r="G314"/>
       <c r="J314"/>
     </row>
     <row r="315" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G315" s="19"/>
+      <c r="G315"/>
       <c r="J315"/>
     </row>
     <row r="316" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G316" s="19"/>
+      <c r="G316"/>
       <c r="J316"/>
     </row>
     <row r="317" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G317" s="19"/>
+      <c r="G317"/>
       <c r="J317"/>
     </row>
     <row r="318" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G318" s="19"/>
+      <c r="G318"/>
       <c r="J318"/>
     </row>
     <row r="319" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G319" s="19"/>
+      <c r="G319"/>
       <c r="J319"/>
     </row>
     <row r="320" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G320" s="19"/>
+      <c r="G320"/>
       <c r="J320"/>
     </row>
     <row r="321" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G321" s="19"/>
+      <c r="G321"/>
       <c r="J321"/>
     </row>
     <row r="322" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G322" s="19"/>
+      <c r="G322"/>
       <c r="J322"/>
     </row>
     <row r="323" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G323" s="19"/>
+      <c r="G323"/>
       <c r="J323"/>
     </row>
     <row r="324" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G324" s="19"/>
+      <c r="G324"/>
       <c r="J324"/>
     </row>
     <row r="325" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G325" s="19"/>
+      <c r="G325"/>
       <c r="J325"/>
     </row>
     <row r="326" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G326" s="19"/>
+      <c r="G326"/>
       <c r="J326"/>
     </row>
     <row r="327" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G327" s="19"/>
+      <c r="G327"/>
       <c r="J327"/>
     </row>
     <row r="328" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G328" s="19"/>
+      <c r="G328"/>
       <c r="J328"/>
     </row>
     <row r="329" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G329" s="19"/>
+      <c r="G329"/>
       <c r="J329"/>
     </row>
     <row r="330" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G330" s="19"/>
+      <c r="G330"/>
       <c r="J330"/>
     </row>
     <row r="331" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G331" s="19"/>
+      <c r="G331"/>
       <c r="J331"/>
     </row>
     <row r="332" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G332" s="19"/>
+      <c r="G332"/>
       <c r="J332"/>
     </row>
     <row r="333" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G333" s="19"/>
+      <c r="G333"/>
       <c r="J333"/>
     </row>
     <row r="334" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G334" s="19"/>
+      <c r="G334"/>
       <c r="J334"/>
     </row>
     <row r="335" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G335" s="19"/>
+      <c r="G335"/>
       <c r="J335"/>
     </row>
-    <row r="336" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G336" s="19"/>
+    <row r="336" spans="7:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336"/>
       <c r="J336"/>
     </row>
-    <row r="337" spans="7:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G337" s="19"/>
+    <row r="337" spans="7:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337"/>
       <c r="J337"/>
     </row>
-    <row r="338" spans="7:10" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G338" s="19"/>
+    <row r="338" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G338"/>
       <c r="J338"/>
     </row>
-    <row r="339" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G339" s="19"/>
+    <row r="339" spans="7:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G339"/>
       <c r="J339"/>
     </row>
-    <row r="340" spans="7:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G340" s="19"/>
+    <row r="340" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G340"/>
       <c r="J340"/>
     </row>
     <row r="341" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G341" s="19"/>
+      <c r="G341"/>
       <c r="J341"/>
     </row>
     <row r="342" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G342" s="19"/>
+      <c r="G342"/>
       <c r="J342"/>
     </row>
     <row r="343" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G343" s="19"/>
+      <c r="G343"/>
       <c r="J343"/>
     </row>
     <row r="344" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G344" s="19"/>
+      <c r="G344"/>
       <c r="J344"/>
     </row>
     <row r="345" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G345" s="19"/>
+      <c r="G345"/>
       <c r="J345"/>
     </row>
     <row r="346" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G346" s="19"/>
+      <c r="G346"/>
       <c r="J346"/>
     </row>
     <row r="347" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G347" s="19"/>
+      <c r="G347"/>
       <c r="J347"/>
     </row>
     <row r="348" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G348" s="19"/>
+      <c r="G348"/>
       <c r="J348"/>
     </row>
     <row r="349" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G349" s="19"/>
+      <c r="G349"/>
       <c r="J349"/>
     </row>
     <row r="350" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G350" s="19"/>
+      <c r="G350"/>
       <c r="J350"/>
     </row>
     <row r="351" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G351" s="19"/>
+      <c r="G351"/>
       <c r="J351"/>
     </row>
     <row r="352" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G352" s="19"/>
+      <c r="G352"/>
       <c r="J352"/>
     </row>
     <row r="353" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G353" s="19"/>
+      <c r="G353"/>
       <c r="J353"/>
     </row>
     <row r="354" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G354" s="19"/>
+      <c r="G354"/>
       <c r="J354"/>
     </row>
     <row r="355" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G355" s="19"/>
+      <c r="G355"/>
       <c r="J355"/>
     </row>
     <row r="356" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G356" s="19"/>
+      <c r="G356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G357" s="19"/>
+    <row r="357" spans="7:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G357"/>
       <c r="J357"/>
     </row>
-    <row r="358" spans="7:10" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G358" s="19"/>
+    <row r="358" spans="7:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="G358"/>
       <c r="J358"/>
     </row>
     <row r="359" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G359" s="19"/>
+      <c r="G359"/>
       <c r="J359"/>
     </row>
     <row r="360" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G360" s="19"/>
+      <c r="G360"/>
       <c r="J360"/>
     </row>
     <row r="361" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G361" s="19"/>
+      <c r="G361"/>
       <c r="J361"/>
     </row>
     <row r="362" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G362" s="19"/>
+      <c r="G362"/>
       <c r="J362"/>
     </row>
     <row r="363" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G363" s="19"/>
+      <c r="G363"/>
       <c r="J363"/>
     </row>
     <row r="364" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G364" s="19"/>
+      <c r="G364"/>
       <c r="J364"/>
     </row>
     <row r="365" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G365" s="19"/>
+      <c r="G365"/>
       <c r="J365"/>
     </row>
     <row r="366" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G366" s="19"/>
+      <c r="G366"/>
       <c r="J366"/>
     </row>
     <row r="367" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G367" s="19"/>
+      <c r="G367"/>
       <c r="J367"/>
     </row>
     <row r="368" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G368" s="19"/>
+      <c r="G368"/>
       <c r="J368"/>
     </row>
     <row r="369" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G369" s="19"/>
+      <c r="G369"/>
       <c r="J369"/>
     </row>
     <row r="370" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G370" s="19"/>
+      <c r="G370"/>
       <c r="J370"/>
     </row>
     <row r="371" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G371" s="19"/>
+      <c r="G371"/>
       <c r="J371"/>
     </row>
     <row r="372" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G372" s="19"/>
+      <c r="G372"/>
       <c r="J372"/>
     </row>
     <row r="373" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G373" s="19"/>
+      <c r="G373"/>
       <c r="J373"/>
     </row>
     <row r="374" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G374" s="19"/>
+      <c r="G374"/>
       <c r="J374"/>
     </row>
     <row r="375" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G375" s="19"/>
+      <c r="G375"/>
       <c r="J375"/>
     </row>
     <row r="376" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G376" s="19"/>
+      <c r="G376"/>
       <c r="J376"/>
     </row>
     <row r="377" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G377" s="19"/>
+      <c r="G377"/>
       <c r="J377"/>
     </row>
     <row r="378" spans="7:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="G378" s="19"/>
       <c r="J378"/>
     </row>
     <row r="379" spans="7:10" ht="15" x14ac:dyDescent="0.25">
@@ -3775,9 +3697,6 @@
     </row>
     <row r="697" spans="10:10" ht="15" x14ac:dyDescent="0.25">
       <c r="J697"/>
-    </row>
-    <row r="698" spans="10:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="J698"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
